--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268808.758597233</v>
+        <v>-271809.2117831724</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12994191.01133305</v>
+        <v>12994191.01133304</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,14 +738,14 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.46519227902342</v>
+      </c>
+      <c r="E3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -753,58 +753,58 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="I3" t="n">
-        <v>44.46519227902342</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>32.22184835001295</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -972,59 +972,59 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.38379687733242</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47.38379687733242</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>52.60630734092062</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.60630734092059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.3426611526237</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>249.4447024463008</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>249.4447024463008</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>249.4447024463008</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.97098623400827</v>
+        <v>212.8348481729895</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>249.4447024462999</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.397246528069672</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>249.4447024462999</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>249.4447024462999</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>131.5171210161147</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>46.44208964608271</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>148.5096054382858</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.1360375858152</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8593033359965</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.4447024463008</v>
+        <v>249.4447024462999</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>106.0936558460224</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.927785256713</v>
       </c>
       <c r="I10" t="n">
-        <v>123.996105780629</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.41098517914681</v>
+        <v>13.69691533304408</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.476558745417</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>205.2826864555413</v>
+        <v>249.4447024462999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>249.4447024463008</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>133.8999935365192</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.5158706120688</v>
       </c>
       <c r="H11" t="n">
-        <v>96.59903651112229</v>
+        <v>290.45130144474</v>
       </c>
       <c r="I11" t="n">
-        <v>25.93020328994439</v>
+        <v>25.93020328994427</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.93934003262321</v>
+        <v>99.93934003262315</v>
       </c>
       <c r="T11" t="n">
         <v>202.1413396959589</v>
@@ -1427,7 +1427,7 @@
         <v>250.9627035555912</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>134.7823175744616</v>
       </c>
       <c r="H12" t="n">
-        <v>87.49964820831458</v>
+        <v>87.49964820831457</v>
       </c>
       <c r="I12" t="n">
-        <v>11.34072749263044</v>
+        <v>11.34072749263039</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8437556595219</v>
@@ -1546,7 +1546,7 @@
         <v>143.1364018023461</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.50777840384926</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2019080638216</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>131.2243737047447</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045436</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060082052</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876457</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>88.4702617003078</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>12.89325539603851</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
@@ -2056,13 +2056,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>152.6418634144258</v>
+        <v>174.8051832782931</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>23.94516103140393</v>
+        <v>105.3798824585322</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2375,7 +2375,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2530,10 +2530,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>89.02539213590437</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>154.5362043403561</v>
       </c>
     </row>
     <row r="26">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.3305177187433</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>277.6957792879584</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.94319885314809</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>156.7148338285352</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3029,22 +3029,22 @@
         <v>379.1415897965312</v>
       </c>
       <c r="C32" t="n">
-        <v>361.6806399040581</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D32" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E32" t="n">
         <v>378.3381182053124</v>
       </c>
       <c r="F32" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G32" t="n">
         <v>406.2510241458082</v>
       </c>
       <c r="H32" t="n">
-        <v>279.9708401375949</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.02033873387019</v>
+        <v>81.02033873387023</v>
       </c>
       <c r="T32" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U32" t="n">
-        <v>247.3166441206968</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V32" t="n">
         <v>324.1600066031855</v>
@@ -3092,7 +3092,7 @@
         <v>345.6487168504636</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y32" t="n">
         <v>382.6456867891042</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>176.2397283149878</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.6545692316784</v>
+        <v>35.86514565979267</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F34" t="n">
-        <v>94.79909181610495</v>
+        <v>141.8287961559818</v>
       </c>
       <c r="G34" t="n">
         <v>161.9498010102175</v>
@@ -3205,7 +3205,7 @@
         <v>136.8617379250045</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745959</v>
+        <v>78.21232487745964</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58849972413412</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T34" t="n">
         <v>213.8897425958124</v>
@@ -3244,16 +3244,16 @@
         <v>282.593199681471</v>
       </c>
       <c r="V34" t="n">
-        <v>248.5453914568785</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W34" t="n">
         <v>282.9307464696416</v>
       </c>
       <c r="X34" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>406.2510241458082</v>
       </c>
       <c r="H35" t="n">
-        <v>279.9708401375955</v>
+        <v>279.9708401375949</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.02033873387018</v>
+        <v>81.02033873387022</v>
       </c>
       <c r="T35" t="n">
-        <v>195.6048049705247</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U35" t="n">
-        <v>247.3166441206968</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V35" t="n">
         <v>324.1600066031855</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.2397283149878</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C37" t="n">
         <v>163.6545692316784</v>
@@ -3439,10 +3439,10 @@
         <v>161.9498010102175</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250045</v>
+        <v>132.1269181270581</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745959</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>63.58849972413415</v>
       </c>
       <c r="S37" t="n">
-        <v>158.3875915402386</v>
+        <v>177.7462364915095</v>
       </c>
       <c r="T37" t="n">
         <v>213.8897425958124</v>
@@ -3481,7 +3481,7 @@
         <v>282.593199681471</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5453914568785</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W37" t="n">
         <v>282.9307464696416</v>
@@ -3490,7 +3490,7 @@
         <v>222.1174035220877</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.9924014851453</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>379.1415897965312</v>
+        <v>379.141589796531</v>
       </c>
       <c r="C38" t="n">
-        <v>361.6806399040581</v>
+        <v>361.680639904058</v>
       </c>
       <c r="D38" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537334</v>
       </c>
       <c r="E38" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053122</v>
       </c>
       <c r="F38" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747619</v>
       </c>
       <c r="G38" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458081</v>
       </c>
       <c r="H38" t="n">
-        <v>279.9708401375955</v>
+        <v>279.9708401375948</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.0203387338702</v>
+        <v>81.02033873387009</v>
       </c>
       <c r="T38" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705246</v>
       </c>
       <c r="U38" t="n">
-        <v>247.3166441206969</v>
+        <v>247.3166441206968</v>
       </c>
       <c r="V38" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031854</v>
       </c>
       <c r="W38" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504635</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115215</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.6456867891042</v>
+        <v>382.645686789104</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.2397283149879</v>
+        <v>176.2397283149878</v>
       </c>
       <c r="C40" t="n">
-        <v>163.6545692316784</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.0232211512628</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.8417107796196</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.8287961559817</v>
       </c>
       <c r="G40" t="n">
-        <v>161.9498010102175</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250045</v>
+        <v>91.62606000622577</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745962</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.7462364915095</v>
+        <v>177.7462364915094</v>
       </c>
       <c r="T40" t="n">
-        <v>194.5310976445411</v>
+        <v>213.8897425958123</v>
       </c>
       <c r="U40" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814709</v>
       </c>
       <c r="V40" t="n">
-        <v>248.5453914568786</v>
+        <v>248.5453914568785</v>
       </c>
       <c r="W40" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696415</v>
       </c>
       <c r="X40" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220876</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.9924014851454</v>
+        <v>214.9924014851453</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.1415897965312</v>
+        <v>379.141589796531</v>
       </c>
       <c r="C41" t="n">
-        <v>361.6806399040581</v>
+        <v>361.680639904058</v>
       </c>
       <c r="D41" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537334</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053122</v>
       </c>
       <c r="F41" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747619</v>
       </c>
       <c r="G41" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458081</v>
       </c>
       <c r="H41" t="n">
-        <v>279.9708401375949</v>
+        <v>279.9708401375948</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.0203387338702</v>
+        <v>81.0203387338701</v>
       </c>
       <c r="T41" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705246</v>
       </c>
       <c r="U41" t="n">
-        <v>247.3166441206969</v>
+        <v>247.3166441206968</v>
       </c>
       <c r="V41" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031854</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504635</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115195</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.6456867891042</v>
+        <v>382.645686789104</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.2397283149879</v>
+        <v>176.2397283149878</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6545692316784</v>
+        <v>153.9526912027571</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.8287961559818</v>
+        <v>141.8287961559817</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102175</v>
+        <v>161.9498010102174</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250045</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745962</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.55879538425649</v>
+        <v>63.58849972413404</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>177.7462364915094</v>
       </c>
       <c r="T43" t="n">
-        <v>213.8897425958124</v>
+        <v>213.8897425958123</v>
       </c>
       <c r="U43" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814709</v>
       </c>
       <c r="V43" t="n">
-        <v>248.5453914568786</v>
+        <v>248.5453914568785</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696415</v>
       </c>
       <c r="X43" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220876</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.9924014851454</v>
+        <v>214.9924014851453</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>379.1415897965312</v>
+        <v>379.141589796531</v>
       </c>
       <c r="C44" t="n">
-        <v>361.6806399040581</v>
+        <v>361.680639904058</v>
       </c>
       <c r="D44" t="n">
-        <v>351.0907897537335</v>
+        <v>351.0907897537334</v>
       </c>
       <c r="E44" t="n">
-        <v>378.3381182053124</v>
+        <v>378.3381182053122</v>
       </c>
       <c r="F44" t="n">
-        <v>403.283793874762</v>
+        <v>403.2837938747619</v>
       </c>
       <c r="G44" t="n">
-        <v>406.2510241458082</v>
+        <v>406.2510241458081</v>
       </c>
       <c r="H44" t="n">
-        <v>279.9708401375949</v>
+        <v>279.9708401375948</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387022</v>
+        <v>81.02033873387009</v>
       </c>
       <c r="T44" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705246</v>
       </c>
       <c r="U44" t="n">
-        <v>247.3166441206969</v>
+        <v>247.3166441206968</v>
       </c>
       <c r="V44" t="n">
-        <v>324.1600066031855</v>
+        <v>324.1600066031854</v>
       </c>
       <c r="W44" t="n">
-        <v>345.6487168504636</v>
+        <v>345.6487168504635</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1388488115196</v>
+        <v>366.1388488115195</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.6456867891042</v>
+        <v>382.645686789104</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.2397283149879</v>
+        <v>176.2397283149878</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6545692316784</v>
+        <v>163.6545692316783</v>
       </c>
       <c r="D46" t="n">
-        <v>145.0232211512629</v>
+        <v>15.54588076062034</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.8417107796196</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9498010102175</v>
+        <v>161.9498010102174</v>
       </c>
       <c r="H46" t="n">
-        <v>136.8617379250045</v>
+        <v>136.8617379250044</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.21232487745949</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413415</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>177.7462364915095</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>64.13170164660403</v>
+        <v>213.8897425958123</v>
       </c>
       <c r="U46" t="n">
-        <v>282.593199681471</v>
+        <v>282.5931996814709</v>
       </c>
       <c r="V46" t="n">
-        <v>248.5453914568786</v>
+        <v>248.5453914568785</v>
       </c>
       <c r="W46" t="n">
-        <v>282.9307464696416</v>
+        <v>282.9307464696415</v>
       </c>
       <c r="X46" t="n">
-        <v>222.1174035220877</v>
+        <v>222.1174035220876</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.9924014851454</v>
+        <v>214.9924014851453</v>
       </c>
     </row>
   </sheetData>
@@ -4331,19 +4331,19 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
         <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4352,25 +4352,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="S2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V2" t="n">
         <v>150.9382759771985</v>
       </c>
       <c r="W2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y2" t="n">
         <v>99.94561517409093</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="C3" t="n">
         <v>99.94561517409093</v>
       </c>
       <c r="D3" t="n">
-        <v>99.94561517409093</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>48.95295437098331</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4413,16 +4413,16 @@
         <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
-        <v>101.9751230740546</v>
+        <v>107.8852500825564</v>
       </c>
       <c r="M3" t="n">
         <v>151.9530299271804</v>
       </c>
       <c r="N3" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O3" t="n">
-        <v>201.9309367803062</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P3" t="n">
         <v>201.9309367803062</v>
@@ -4443,16 +4443,16 @@
         <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.66286067370327</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="C4" t="n">
-        <v>21.66286067370327</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4510,28 +4510,28 @@
         <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>123.6481822799185</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="S4" t="n">
-        <v>123.6481822799185</v>
+        <v>157.016601144929</v>
       </c>
       <c r="T4" t="n">
-        <v>123.6481822799185</v>
+        <v>157.016601144929</v>
       </c>
       <c r="U4" t="n">
-        <v>123.6481822799185</v>
+        <v>157.016601144929</v>
       </c>
       <c r="V4" t="n">
-        <v>72.65552147681089</v>
+        <v>157.016601144929</v>
       </c>
       <c r="W4" t="n">
-        <v>72.65552147681089</v>
+        <v>157.016601144929</v>
       </c>
       <c r="X4" t="n">
-        <v>21.66286067370327</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.66286067370327</v>
+        <v>55.03127953871374</v>
       </c>
     </row>
     <row r="5">
@@ -4553,10 +4553,10 @@
         <v>106.5058416586064</v>
       </c>
       <c r="F5" t="n">
-        <v>52.16612652666438</v>
+        <v>73.95852009293679</v>
       </c>
       <c r="G5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
         <v>4.303705438449811</v>
@@ -4568,22 +4568,22 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
-        <v>4.303705438449811</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="M5" t="n">
-        <v>55.4102075200413</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="N5" t="n">
-        <v>108.6685623208577</v>
+        <v>210.024473605</v>
       </c>
       <c r="O5" t="n">
-        <v>161.9269171216741</v>
+        <v>210.024473605</v>
       </c>
       <c r="P5" t="n">
-        <v>215.1852719224906</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4626,19 +4626,19 @@
         <v>106.5058416586064</v>
       </c>
       <c r="D6" t="n">
-        <v>106.5058416586064</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="E6" t="n">
-        <v>106.5058416586064</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="F6" t="n">
-        <v>52.16612652666438</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G6" t="n">
-        <v>52.16612652666438</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="H6" t="n">
-        <v>52.16612652666438</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
@@ -4650,16 +4650,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L6" t="n">
-        <v>55.4102075200413</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="M6" t="n">
-        <v>108.6685623208577</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="N6" t="n">
+        <v>110.8204150400826</v>
+      </c>
+      <c r="O6" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="O6" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="P6" t="n">
         <v>215.1852719224906</v>
@@ -4671,25 +4671,25 @@
         <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="U6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="V6" t="n">
-        <v>215.1852719224906</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="X6" t="n">
-        <v>215.1852719224906</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="Y6" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="C7" t="n">
-        <v>73.72650203070704</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="D7" t="n">
-        <v>73.72650203070704</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="E7" t="n">
-        <v>73.72650203070704</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="F7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="H7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="I7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="J7" t="n">
         <v>19.38678689876497</v>
@@ -4744,31 +4744,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.0662171626491</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>128.0662171626491</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="W7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="X7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>788.9506202087451</v>
+        <v>493.8501179744927</v>
       </c>
       <c r="C8" t="n">
-        <v>788.9506202087451</v>
+        <v>493.8501179744927</v>
       </c>
       <c r="D8" t="n">
-        <v>536.9862743033908</v>
+        <v>493.8501179744927</v>
       </c>
       <c r="E8" t="n">
-        <v>285.0219283980365</v>
+        <v>493.8501179744927</v>
       </c>
       <c r="F8" t="n">
-        <v>33.05758249268212</v>
+        <v>486.9046172252893</v>
       </c>
       <c r="G8" t="n">
-        <v>19.95557619570407</v>
+        <v>271.9199221010575</v>
       </c>
       <c r="H8" t="n">
-        <v>19.95557619570407</v>
+        <v>19.95557619570399</v>
       </c>
       <c r="I8" t="n">
-        <v>19.95557619570407</v>
+        <v>19.95557619570399</v>
       </c>
       <c r="J8" t="n">
-        <v>36.64556125785322</v>
+        <v>36.64556125785248</v>
       </c>
       <c r="K8" t="n">
-        <v>112.3980406796866</v>
+        <v>112.3980406796848</v>
       </c>
       <c r="L8" t="n">
-        <v>342.3150038305994</v>
+        <v>243.2774517528461</v>
       </c>
       <c r="M8" t="n">
-        <v>519.6130038563302</v>
+        <v>420.5754517785755</v>
       </c>
       <c r="N8" t="n">
-        <v>704.3936792606626</v>
+        <v>605.3561271829064</v>
       </c>
       <c r="O8" t="n">
-        <v>865.5415700344627</v>
+        <v>766.5040179567052</v>
       </c>
       <c r="P8" t="n">
-        <v>968.5765656627266</v>
+        <v>869.539013584968</v>
       </c>
       <c r="Q8" t="n">
-        <v>997.7788097852032</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="R8" t="n">
-        <v>994.3472476356378</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="S8" t="n">
-        <v>994.3472476356378</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="T8" t="n">
-        <v>994.3472476356378</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="U8" t="n">
-        <v>994.3472476356378</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="V8" t="n">
-        <v>994.3472476356378</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="W8" t="n">
-        <v>994.3472476356378</v>
+        <v>745.8144638798462</v>
       </c>
       <c r="X8" t="n">
-        <v>994.3472476356378</v>
+        <v>745.8144638798462</v>
       </c>
       <c r="Y8" t="n">
-        <v>994.3472476356378</v>
+        <v>493.8501179744927</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.8011529796584</v>
+        <v>213.4013358315289</v>
       </c>
       <c r="C9" t="n">
-        <v>152.8011529796584</v>
+        <v>213.4013358315289</v>
       </c>
       <c r="D9" t="n">
-        <v>152.8011529796584</v>
+        <v>213.4013358315289</v>
       </c>
       <c r="E9" t="n">
-        <v>152.8011529796584</v>
+        <v>213.4013358315289</v>
       </c>
       <c r="F9" t="n">
-        <v>19.95557619570407</v>
+        <v>66.86677785841381</v>
       </c>
       <c r="G9" t="n">
-        <v>19.95557619570407</v>
+        <v>66.86677785841381</v>
       </c>
       <c r="H9" t="n">
-        <v>19.95557619570407</v>
+        <v>66.86677785841381</v>
       </c>
       <c r="I9" t="n">
-        <v>19.95557619570407</v>
+        <v>19.95557619570399</v>
       </c>
       <c r="J9" t="n">
-        <v>19.95557619570407</v>
+        <v>19.95557619570399</v>
       </c>
       <c r="K9" t="n">
-        <v>82.93749976635233</v>
+        <v>134.0747606993054</v>
       </c>
       <c r="L9" t="n">
-        <v>213.9470096143643</v>
+        <v>265.0842705473164</v>
       </c>
       <c r="M9" t="n">
-        <v>386.1857964598895</v>
+        <v>437.3230573928405</v>
       </c>
       <c r="N9" t="n">
-        <v>577.3918763964574</v>
+        <v>628.5291373294071</v>
       </c>
       <c r="O9" t="n">
-        <v>730.0882891999066</v>
+        <v>875.4793927512441</v>
       </c>
       <c r="P9" t="n">
-        <v>977.0385446217444</v>
+        <v>978.6986597362829</v>
       </c>
       <c r="Q9" t="n">
-        <v>997.7788097852032</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="R9" t="n">
-        <v>997.7788097852032</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="S9" t="n">
-        <v>847.7691073222882</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="T9" t="n">
-        <v>847.7691073222882</v>
+        <v>800.6717011126591</v>
       </c>
       <c r="U9" t="n">
-        <v>847.7691073222882</v>
+        <v>572.5309906722586</v>
       </c>
       <c r="V9" t="n">
-        <v>612.6169990905455</v>
+        <v>572.5309906722586</v>
       </c>
       <c r="W9" t="n">
-        <v>360.6526531851912</v>
+        <v>320.566644766905</v>
       </c>
       <c r="X9" t="n">
-        <v>152.8011529796584</v>
+        <v>320.566644766905</v>
       </c>
       <c r="Y9" t="n">
-        <v>152.8011529796584</v>
+        <v>213.4013358315289</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>312.7243172122141</v>
+        <v>336.1764481515892</v>
       </c>
       <c r="C10" t="n">
-        <v>312.7243172122141</v>
+        <v>336.1764481515892</v>
       </c>
       <c r="D10" t="n">
-        <v>312.7243172122141</v>
+        <v>336.1764481515892</v>
       </c>
       <c r="E10" t="n">
-        <v>164.811223629821</v>
+        <v>188.2633545691961</v>
       </c>
       <c r="F10" t="n">
-        <v>164.811223629821</v>
+        <v>188.2633545691961</v>
       </c>
       <c r="G10" t="n">
-        <v>164.811223629821</v>
+        <v>188.2633545691961</v>
       </c>
       <c r="H10" t="n">
-        <v>164.811223629821</v>
+        <v>33.79084420887983</v>
       </c>
       <c r="I10" t="n">
-        <v>39.56263193221599</v>
+        <v>33.79084420887983</v>
       </c>
       <c r="J10" t="n">
-        <v>19.95557619570407</v>
+        <v>19.95557619570399</v>
       </c>
       <c r="K10" t="n">
-        <v>118.2131835556081</v>
+        <v>118.2131835556076</v>
       </c>
       <c r="L10" t="n">
-        <v>299.4755266690452</v>
+        <v>299.4755266690443</v>
       </c>
       <c r="M10" t="n">
-        <v>500.9803757208125</v>
+        <v>500.9803757208111</v>
       </c>
       <c r="N10" t="n">
-        <v>703.128506269465</v>
+        <v>703.1285062694628</v>
       </c>
       <c r="O10" t="n">
-        <v>873.8287279396951</v>
+        <v>873.8287279396925</v>
       </c>
       <c r="P10" t="n">
-        <v>996.3715747242396</v>
+        <v>996.3715747242366</v>
       </c>
       <c r="Q10" t="n">
-        <v>997.7788097852032</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="R10" t="n">
-        <v>997.7788097852032</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="S10" t="n">
-        <v>997.7788097852032</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="T10" t="n">
-        <v>772.0449120625597</v>
+        <v>997.7788097851998</v>
       </c>
       <c r="U10" t="n">
-        <v>564.6886631175685</v>
+        <v>745.8144638798462</v>
       </c>
       <c r="V10" t="n">
-        <v>564.6886631175685</v>
+        <v>745.8144638798462</v>
       </c>
       <c r="W10" t="n">
-        <v>312.7243172122141</v>
+        <v>745.8144638798462</v>
       </c>
       <c r="X10" t="n">
-        <v>312.7243172122141</v>
+        <v>517.8249129818289</v>
       </c>
       <c r="Y10" t="n">
-        <v>312.7243172122141</v>
+        <v>517.8249129818289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.575539531192</v>
+        <v>2111.638426874765</v>
       </c>
       <c r="C11" t="n">
-        <v>1411.613022590781</v>
+        <v>1742.675909934353</v>
       </c>
       <c r="D11" t="n">
-        <v>1411.613022590781</v>
+        <v>1607.423391210596</v>
       </c>
       <c r="E11" t="n">
-        <v>1025.824769992536</v>
+        <v>1221.635138612352</v>
       </c>
       <c r="F11" t="n">
-        <v>614.8388652029289</v>
+        <v>810.6492338227443</v>
       </c>
       <c r="G11" t="n">
-        <v>200.1763696351824</v>
+        <v>395.986738254998</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6015852805134</v>
+        <v>102.6015852805133</v>
       </c>
       <c r="I11" t="n">
-        <v>76.40946074521601</v>
+        <v>76.40946074521604</v>
       </c>
       <c r="J11" t="n">
-        <v>299.3905666297751</v>
+        <v>299.3905666297746</v>
       </c>
       <c r="K11" t="n">
         <v>684.3199607079482</v>
@@ -5051,40 +5051,40 @@
         <v>1802.844526472333</v>
       </c>
       <c r="N11" t="n">
-        <v>2421.316895906262</v>
+        <v>2421.316895906263</v>
       </c>
       <c r="O11" t="n">
-        <v>2991.987555303655</v>
+        <v>2991.987555303657</v>
       </c>
       <c r="P11" t="n">
-        <v>3444.540759308048</v>
+        <v>3444.54075930805</v>
       </c>
       <c r="Q11" t="n">
-        <v>3736.216621878053</v>
+        <v>3736.216621878055</v>
       </c>
       <c r="R11" t="n">
-        <v>3820.4730372608</v>
+        <v>3820.473037260801</v>
       </c>
       <c r="S11" t="n">
-        <v>3719.524208945019</v>
+        <v>3719.524208945021</v>
       </c>
       <c r="T11" t="n">
-        <v>3515.341037534959</v>
+        <v>3515.341037534961</v>
       </c>
       <c r="U11" t="n">
-        <v>3261.843357175776</v>
+        <v>3261.843357175778</v>
       </c>
       <c r="V11" t="n">
-        <v>2930.780469832206</v>
+        <v>3261.843357175778</v>
       </c>
       <c r="W11" t="n">
-        <v>2930.780469832206</v>
+        <v>3261.843357175778</v>
       </c>
       <c r="X11" t="n">
-        <v>2557.314711571126</v>
+        <v>2888.377598914698</v>
       </c>
       <c r="Y11" t="n">
-        <v>2167.175379595314</v>
+        <v>2498.238266938887</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>87.8647410408023</v>
       </c>
       <c r="I12" t="n">
-        <v>76.40946074521601</v>
+        <v>76.40946074521604</v>
       </c>
       <c r="J12" t="n">
-        <v>190.3976328795644</v>
+        <v>190.3976328795646</v>
       </c>
       <c r="K12" t="n">
-        <v>463.3763995510238</v>
+        <v>463.3763995510241</v>
       </c>
       <c r="L12" t="n">
-        <v>530.0153906520757</v>
+        <v>876.7525801681281</v>
       </c>
       <c r="M12" t="n">
-        <v>1031.762763909689</v>
+        <v>1378.499953425742</v>
       </c>
       <c r="N12" t="n">
         <v>1561.198542057273</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.309050188688</v>
+        <v>2023.309050188687</v>
       </c>
       <c r="P12" t="n">
         <v>2374.860407102921</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1002.366493319164</v>
+        <v>880.2318775423137</v>
       </c>
       <c r="C13" t="n">
-        <v>833.4303103912573</v>
+        <v>711.2956946144068</v>
       </c>
       <c r="D13" t="n">
-        <v>683.3136709789216</v>
+        <v>561.179055202071</v>
       </c>
       <c r="E13" t="n">
-        <v>535.4005773965284</v>
+        <v>413.2659616196779</v>
       </c>
       <c r="F13" t="n">
-        <v>388.510629898618</v>
+        <v>413.2659616196779</v>
       </c>
       <c r="G13" t="n">
-        <v>220.9916847879899</v>
+        <v>245.7470165090498</v>
       </c>
       <c r="H13" t="n">
-        <v>76.40946074521601</v>
+        <v>101.1647924662759</v>
       </c>
       <c r="I13" t="n">
-        <v>76.40946074521601</v>
+        <v>76.40946074521604</v>
       </c>
       <c r="J13" t="n">
         <v>134.2745007893996</v>
       </c>
       <c r="K13" t="n">
-        <v>359.2013737334964</v>
+        <v>359.2013737334965</v>
       </c>
       <c r="L13" t="n">
-        <v>702.5567660929341</v>
+        <v>702.5567660929345</v>
       </c>
       <c r="M13" t="n">
-        <v>1074.966008452075</v>
+        <v>1074.966008452076</v>
       </c>
       <c r="N13" t="n">
-        <v>1443.954807825353</v>
+        <v>1443.954807825354</v>
       </c>
       <c r="O13" t="n">
-        <v>1768.759391099889</v>
+        <v>1768.75939109989</v>
       </c>
       <c r="P13" t="n">
-        <v>2023.165141588041</v>
+        <v>2023.165141588042</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.867416187032</v>
+        <v>2115.867416187033</v>
       </c>
       <c r="R13" t="n">
-        <v>2115.867416187032</v>
+        <v>2115.867416187033</v>
       </c>
       <c r="S13" t="n">
-        <v>2115.867416187032</v>
+        <v>2115.867416187033</v>
       </c>
       <c r="T13" t="n">
-        <v>2115.867416187032</v>
+        <v>2115.867416187033</v>
       </c>
       <c r="U13" t="n">
-        <v>1826.77457975893</v>
+        <v>1826.774579758931</v>
       </c>
       <c r="V13" t="n">
-        <v>1826.77457975893</v>
+        <v>1572.090091553044</v>
       </c>
       <c r="W13" t="n">
-        <v>1537.357409721969</v>
+        <v>1282.672921516084</v>
       </c>
       <c r="X13" t="n">
-        <v>1404.807537292934</v>
+        <v>1282.672921516084</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.014958149404</v>
+        <v>1061.880342372554</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127622</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5276,13 +5276,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
         <v>2234.298471234014</v>
@@ -5303,7 +5303,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5355,13 +5355,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>142.6767696327857</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M15" t="n">
         <v>734.6951238849133</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.9184063975744</v>
+        <v>957.5492919979873</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9822234696675</v>
+        <v>788.6131090700804</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8655840573317</v>
+        <v>638.4964696577447</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9524904749385</v>
+        <v>490.5833760753516</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0625429770282</v>
+        <v>343.6934285774412</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5437,10 +5437,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M16" t="n">
         <v>1239.450608139318</v>
@@ -5449,37 +5449,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2156.878408367243</v>
+        <v>1958.704181747507</v>
       </c>
       <c r="U16" t="n">
-        <v>1867.802194681969</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V16" t="n">
-        <v>1613.117706476083</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.700536439122</v>
+        <v>1380.210798025273</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.710985541104</v>
+        <v>1152.221247127256</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.9184063975744</v>
+        <v>1139.197756828227</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
@@ -5501,13 +5501,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
@@ -5522,13 +5522,13 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
         <v>4202.751434297606</v>
@@ -5540,25 +5540,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2380436180325</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>965.2563978701601</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.5320614616468</v>
+        <v>930.4858260316503</v>
       </c>
       <c r="C19" t="n">
-        <v>783.5958785337399</v>
+        <v>930.4858260316503</v>
       </c>
       <c r="D19" t="n">
-        <v>633.4792391214041</v>
+        <v>780.3691866193145</v>
       </c>
       <c r="E19" t="n">
-        <v>485.566145539011</v>
+        <v>632.4560930369214</v>
       </c>
       <c r="F19" t="n">
         <v>485.566145539011</v>
@@ -5674,10 +5674,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117244</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M19" t="n">
         <v>1239.450608139318</v>
@@ -5686,37 +5686,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P19" t="n">
         <v>2311.699365782259</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074625</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526789007</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U19" t="n">
-        <v>2026.563526789007</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V19" t="n">
-        <v>1872.379826370395</v>
+        <v>1560.916420903437</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.962656333434</v>
+        <v>1560.916420903437</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.973105435417</v>
+        <v>1332.92687000542</v>
       </c>
       <c r="Y19" t="n">
-        <v>1134.180526291887</v>
+        <v>1112.13429086189</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,10 +5738,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5765,13 +5765,13 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5786,13 +5786,13 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.861033895492</v>
@@ -5829,25 +5829,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2380436180325</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>965.2563978701601</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N21" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
-        <v>2134.22883626969</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599890994</v>
+        <v>495.0957149475995</v>
       </c>
       <c r="C22" t="n">
-        <v>562.9550599890994</v>
+        <v>495.0957149475995</v>
       </c>
       <c r="D22" t="n">
-        <v>412.8384205767636</v>
+        <v>495.0957149475995</v>
       </c>
       <c r="E22" t="n">
-        <v>264.9253269943704</v>
+        <v>347.1826213652064</v>
       </c>
       <c r="F22" t="n">
-        <v>118.0353794964595</v>
+        <v>200.2926738672961</v>
       </c>
       <c r="G22" t="n">
         <v>93.84834815160703</v>
@@ -5923,37 +5923,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628691</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193391</v>
+        <v>676.7441797778392</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,10 +5975,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -6008,7 +6008,7 @@
         <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6023,16 +6023,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953583</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.599035247486</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.352361269496</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.791123359144</v>
+        <v>559.79111798976</v>
       </c>
       <c r="C25" t="n">
-        <v>847.8549404312369</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D25" t="n">
-        <v>697.7383010189012</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E25" t="n">
-        <v>549.8252074365081</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6145,13 +6145,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411608</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948591</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6160,37 +6160,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782258</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335693</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294194</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033125</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747507</v>
       </c>
       <c r="U25" t="n">
-        <v>2026.563526789007</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.638888267892</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.221718230931</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.232167332914</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.439588189383</v>
+        <v>741.4395828199997</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6245,7 +6245,7 @@
         <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,25 +6300,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.75575956269</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N27" t="n">
-        <v>2276.851722962027</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.871442866505</v>
+        <v>571.8714428665046</v>
       </c>
       <c r="C28" t="n">
-        <v>402.9352599385982</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="D28" t="n">
-        <v>402.9352599385982</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385982</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385982</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
         <v>235.7210651131766</v>
@@ -6385,10 +6385,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6397,37 +6397,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S28" t="n">
-        <v>2255.158691952031</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.479909666413</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.40369598114</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.719207775253</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W28" t="n">
         <v>1202.302037738292</v>
       </c>
       <c r="X28" t="n">
-        <v>974.3124868402749</v>
+        <v>974.3124868402745</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.5199076967448</v>
+        <v>753.5199076967443</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,34 +6449,34 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160696</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P29" t="n">
         <v>4202.751434297606</v>
@@ -6494,19 +6494,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034529</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668117</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L30" t="n">
-        <v>1062.737405310563</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M30" t="n">
-        <v>1654.75575956269</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.75575956269</v>
+        <v>2277.890755536549</v>
       </c>
       <c r="O30" t="n">
-        <v>2201.632234562885</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.9550599890989</v>
+        <v>562.9550599890981</v>
       </c>
       <c r="C31" t="n">
-        <v>394.018877061192</v>
+        <v>394.0188770611912</v>
       </c>
       <c r="D31" t="n">
-        <v>394.018877061192</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="E31" t="n">
-        <v>394.018877061192</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F31" t="n">
-        <v>394.018877061192</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.459198011725</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6637,34 +6637,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1193.385654860885</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628688</v>
+        <v>965.396103962868</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.6035248193386</v>
+        <v>744.6035248193378</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C32" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.48210440131</v>
+        <v>1575.482104401311</v>
       </c>
       <c r="E32" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921443</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G32" t="n">
         <v>375.6104516478936</v>
@@ -6698,13 +6698,13 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M32" t="n">
         <v>2182.462224957688</v>
@@ -6713,7 +6713,7 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P32" t="n">
         <v>4150.91518802128</v>
@@ -6725,25 +6725,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S32" t="n">
-        <v>4558.742435310217</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T32" t="n">
         <v>4361.16182422888</v>
       </c>
       <c r="U32" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V32" t="n">
-        <v>3783.912682083543</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W32" t="n">
-        <v>3434.772564052771</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X32" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y32" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I33" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J33" t="n">
-        <v>240.4596049779265</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K33" t="n">
-        <v>570.9683475412852</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L33" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M33" t="n">
-        <v>1653.719034637164</v>
+        <v>1153.241917385463</v>
       </c>
       <c r="N33" t="n">
-        <v>1653.719034637164</v>
+        <v>1775.337880784799</v>
       </c>
       <c r="O33" t="n">
-        <v>2133.192111344164</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P33" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q33" t="n">
         <v>2552.77562977024</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.7081129841262</v>
+        <v>797.4171953554508</v>
       </c>
       <c r="C34" t="n">
-        <v>569.400467295562</v>
+        <v>761.1897754970737</v>
       </c>
       <c r="D34" t="n">
-        <v>569.400467295562</v>
+        <v>761.1897754970737</v>
       </c>
       <c r="E34" t="n">
-        <v>569.400467295562</v>
+        <v>616.9052191540234</v>
       </c>
       <c r="F34" t="n">
         <v>473.6438088954559</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0581513093775</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="H34" t="n">
-        <v>171.8139715871508</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I34" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J34" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K34" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L34" t="n">
-        <v>829.8532792141723</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M34" t="n">
-        <v>1252.639200606912</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N34" t="n">
-        <v>1670.891395746899</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O34" t="n">
-        <v>2041.470182110208</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P34" t="n">
         <v>2335.556946294692</v>
@@ -6880,28 +6880,28 @@
         <v>2456.826409196407</v>
       </c>
       <c r="R34" t="n">
-        <v>2392.595601394252</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S34" t="n">
-        <v>2392.595601394252</v>
+        <v>2277.28475617468</v>
       </c>
       <c r="T34" t="n">
-        <v>2176.545356347977</v>
+        <v>2061.234511128405</v>
       </c>
       <c r="U34" t="n">
-        <v>1891.097679902047</v>
+        <v>1775.786834682474</v>
       </c>
       <c r="V34" t="n">
-        <v>1640.041728935503</v>
+        <v>1524.73088371593</v>
       </c>
       <c r="W34" t="n">
-        <v>1354.253096137885</v>
+        <v>1238.942250918313</v>
       </c>
       <c r="X34" t="n">
-        <v>1129.89208247921</v>
+        <v>1014.581237259638</v>
       </c>
       <c r="Y34" t="n">
-        <v>912.728040575023</v>
+        <v>797.4171953554508</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E35" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042411</v>
       </c>
       <c r="F35" t="n">
-        <v>785.965021492145</v>
+        <v>785.9650214921458</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478943</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H35" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J35" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128761</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M35" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O35" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q35" t="n">
         <v>4514.497374127288</v>
@@ -6965,22 +6965,22 @@
         <v>4558.742435310218</v>
       </c>
       <c r="T35" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228881</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V35" t="n">
         <v>3783.912682083544</v>
       </c>
       <c r="W35" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060311</v>
       </c>
       <c r="J36" t="n">
-        <v>240.4596049779265</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K36" t="n">
-        <v>570.9683475412852</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L36" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M36" t="n">
-        <v>1653.719034637164</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N36" t="n">
-        <v>2275.8149980365</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O36" t="n">
-        <v>2552.77562977024</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P36" t="n">
         <v>2552.77562977024</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.9514545840202</v>
+        <v>555.1664599623978</v>
       </c>
       <c r="C37" t="n">
-        <v>473.6438088954561</v>
+        <v>389.8588142738337</v>
       </c>
       <c r="D37" t="n">
-        <v>473.6438088954561</v>
+        <v>389.8588142738337</v>
       </c>
       <c r="E37" t="n">
-        <v>473.6438088954561</v>
+        <v>389.8588142738337</v>
       </c>
       <c r="F37" t="n">
-        <v>473.6438088954561</v>
+        <v>389.8588142738337</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0581513093778</v>
+        <v>226.2731566877554</v>
       </c>
       <c r="H37" t="n">
-        <v>171.8139715871508</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608051</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3500754639144</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K37" t="n">
-        <v>438.535131782758</v>
+        <v>438.5351317827583</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141721</v>
+        <v>829.8532792141725</v>
       </c>
       <c r="M37" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.639200606912</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746899</v>
       </c>
       <c r="O37" t="n">
         <v>2041.470182110208</v>
@@ -7117,28 +7117,28 @@
         <v>2456.826409196407</v>
       </c>
       <c r="R37" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S37" t="n">
-        <v>2296.838942994146</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T37" t="n">
-        <v>2080.788697947871</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U37" t="n">
-        <v>1795.341021501941</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.285070535396</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.496437737779</v>
+        <v>1174.711443116156</v>
       </c>
       <c r="X37" t="n">
-        <v>1034.135424079104</v>
+        <v>950.3504294574819</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.971382174917</v>
+        <v>733.1863875532946</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469786</v>
       </c>
       <c r="C38" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768717</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.48210440131</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F38" t="n">
-        <v>785.965021492145</v>
+        <v>785.9650214921439</v>
       </c>
       <c r="G38" t="n">
-        <v>375.6104516478943</v>
+        <v>375.6104516478934</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251934</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L38" t="n">
         <v>1461.457663018651</v>
@@ -7190,19 +7190,19 @@
         <v>3602.609239333933</v>
       </c>
       <c r="P38" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310217</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228879</v>
       </c>
       <c r="U38" t="n">
         <v>4111.347032187771</v>
@@ -7214,10 +7214,10 @@
         <v>3434.772564052772</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031033</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294565</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060308</v>
       </c>
       <c r="J39" t="n">
-        <v>240.4596049779265</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K39" t="n">
-        <v>570.9683475412852</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L39" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M39" t="n">
-        <v>1653.719034637164</v>
+        <v>1153.241917385463</v>
       </c>
       <c r="N39" t="n">
-        <v>1653.719034637164</v>
+        <v>1775.337880784799</v>
       </c>
       <c r="O39" t="n">
-        <v>2133.192111344164</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P39" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q39" t="n">
         <v>2552.77562977024</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.9514545840196</v>
+        <v>619.3972677645552</v>
       </c>
       <c r="C40" t="n">
-        <v>473.6438088954555</v>
+        <v>619.3972677645552</v>
       </c>
       <c r="D40" t="n">
-        <v>473.6438088954555</v>
+        <v>472.9091655915624</v>
       </c>
       <c r="E40" t="n">
-        <v>473.6438088954555</v>
+        <v>328.6246092485123</v>
       </c>
       <c r="F40" t="n">
-        <v>473.6438088954555</v>
+        <v>185.3631989899449</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0581513093773</v>
+        <v>185.3631989899449</v>
       </c>
       <c r="H40" t="n">
-        <v>171.8139715871508</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608051</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J40" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827579</v>
+        <v>438.5351317827581</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141721</v>
+        <v>829.8532792141723</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.639200606912</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746899</v>
       </c>
       <c r="O40" t="n">
         <v>2041.470182110208</v>
@@ -7357,25 +7357,25 @@
         <v>2456.826409196407</v>
       </c>
       <c r="S40" t="n">
-        <v>2277.28475617468</v>
+        <v>2277.284756174681</v>
       </c>
       <c r="T40" t="n">
-        <v>2080.788697947871</v>
+        <v>2061.234511128406</v>
       </c>
       <c r="U40" t="n">
-        <v>1795.34102150194</v>
+        <v>1775.786834682475</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.285070535396</v>
+        <v>1524.730883715931</v>
       </c>
       <c r="W40" t="n">
-        <v>1258.496437737778</v>
+        <v>1238.942250918314</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.135424079104</v>
+        <v>1014.581237259639</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.9713821749165</v>
+        <v>797.4171953554521</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469786</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768717</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.48210440131</v>
       </c>
       <c r="E41" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F41" t="n">
-        <v>785.965021492145</v>
+        <v>785.9650214921439</v>
       </c>
       <c r="G41" t="n">
-        <v>375.6104516478943</v>
+        <v>375.6104516478934</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608122</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I41" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322607997</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251925</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128745</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P41" t="n">
         <v>4150.91518802128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310216</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228878</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.34703218777</v>
       </c>
       <c r="V41" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083543</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052771</v>
       </c>
       <c r="X41" t="n">
         <v>3064.935343031035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294565</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060308</v>
       </c>
       <c r="J42" t="n">
-        <v>240.4596049779265</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K42" t="n">
-        <v>570.9683475412852</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M42" t="n">
-        <v>1653.719034637164</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N42" t="n">
-        <v>1653.719034637164</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O42" t="n">
         <v>2133.192111344164</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.2128648425875</v>
+        <v>555.1664599623999</v>
       </c>
       <c r="C43" t="n">
-        <v>616.9052191540234</v>
+        <v>399.658691070726</v>
       </c>
       <c r="D43" t="n">
-        <v>616.9052191540234</v>
+        <v>399.658691070726</v>
       </c>
       <c r="E43" t="n">
-        <v>616.9052191540234</v>
+        <v>399.658691070726</v>
       </c>
       <c r="F43" t="n">
-        <v>473.6438088954559</v>
+        <v>256.3972808121587</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0581513093776</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H43" t="n">
-        <v>171.8139715871508</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608051</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J43" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K43" t="n">
-        <v>438.5351317827579</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141721</v>
+        <v>829.8532792141723</v>
       </c>
       <c r="M43" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.639200606912</v>
       </c>
       <c r="N43" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746899</v>
       </c>
       <c r="O43" t="n">
         <v>2041.470182110208</v>
       </c>
       <c r="P43" t="n">
-        <v>2335.556946294692</v>
+        <v>2335.556946294693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196408</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.100353252713</v>
+        <v>2392.595601394252</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.100353252713</v>
+        <v>2213.053948372526</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.050108206438</v>
+        <v>1997.003703326251</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.602431760508</v>
+        <v>1711.55602688032</v>
       </c>
       <c r="V43" t="n">
-        <v>1687.546480793964</v>
+        <v>1460.500075913777</v>
       </c>
       <c r="W43" t="n">
-        <v>1401.757847996346</v>
+        <v>1174.711443116159</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.396834337672</v>
+        <v>950.3504294574838</v>
       </c>
       <c r="Y43" t="n">
-        <v>960.2327924334843</v>
+        <v>733.1863875532966</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2295.453245469787</v>
       </c>
       <c r="C44" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D44" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921443</v>
+        <v>785.9650214921451</v>
       </c>
       <c r="G44" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478934</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251934</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
         <v>2182.462224957688</v>
@@ -7661,31 +7661,31 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P44" t="n">
         <v>4150.91518802128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.742435310218</v>
+        <v>4558.742435310217</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.16182422888</v>
+        <v>4361.161824228879</v>
       </c>
       <c r="U44" t="n">
-        <v>4111.347032187771</v>
+        <v>4111.34703218777</v>
       </c>
       <c r="V44" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083543</v>
       </c>
       <c r="W44" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052771</v>
       </c>
       <c r="X44" t="n">
         <v>3064.935343031035</v>
@@ -7719,25 +7719,25 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I45" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060308</v>
       </c>
       <c r="J45" t="n">
-        <v>240.4596049779265</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K45" t="n">
-        <v>570.9683475412852</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.700680385036</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M45" t="n">
-        <v>1653.719034637164</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N45" t="n">
-        <v>1653.719034637164</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="O45" t="n">
         <v>2133.192111344164</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>706.4372083959425</v>
+        <v>798.9389207862826</v>
       </c>
       <c r="C46" t="n">
-        <v>541.1295627073785</v>
+        <v>633.6312750977186</v>
       </c>
       <c r="D46" t="n">
-        <v>394.6414605343856</v>
+        <v>617.9283652385058</v>
       </c>
       <c r="E46" t="n">
-        <v>394.6414605343856</v>
+        <v>473.6438088954555</v>
       </c>
       <c r="F46" t="n">
-        <v>394.6414605343856</v>
+        <v>473.6438088954555</v>
       </c>
       <c r="G46" t="n">
-        <v>231.0558029483073</v>
+        <v>310.0581513093774</v>
       </c>
       <c r="H46" t="n">
-        <v>92.81162322608053</v>
+        <v>171.8139715871507</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J46" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827579</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L46" t="n">
         <v>829.8532792141721</v>
       </c>
       <c r="M46" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.639200606912</v>
       </c>
       <c r="N46" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746899</v>
       </c>
       <c r="O46" t="n">
         <v>2041.470182110208</v>
@@ -7828,28 +7828,28 @@
         <v>2456.826409196407</v>
       </c>
       <c r="R46" t="n">
-        <v>2392.595601394251</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="S46" t="n">
-        <v>2213.053948372524</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="T46" t="n">
-        <v>2148.274451759793</v>
+        <v>2240.776164150132</v>
       </c>
       <c r="U46" t="n">
-        <v>1862.826775313863</v>
+        <v>1955.328487704202</v>
       </c>
       <c r="V46" t="n">
-        <v>1611.770824347319</v>
+        <v>1704.272536737658</v>
       </c>
       <c r="W46" t="n">
-        <v>1325.982191549701</v>
+        <v>1418.483903940041</v>
       </c>
       <c r="X46" t="n">
-        <v>1101.621177891027</v>
+        <v>1194.122890281366</v>
       </c>
       <c r="Y46" t="n">
-        <v>884.4571359868394</v>
+        <v>976.9588483771793</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>256.7644825146879</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>262.5442413612734</v>
       </c>
       <c r="N2" t="n">
-        <v>212.9051825663978</v>
+        <v>263.3879167614743</v>
       </c>
       <c r="O2" t="n">
         <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>268.4117974997384</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
-        <v>172.3193876769556</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>180.0744745527947</v>
+        <v>174.1046492916817</v>
       </c>
       <c r="N3" t="n">
-        <v>168.9501955242219</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
         <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>175.0047203318838</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>257.2476482458454</v>
+        <v>252.0347206524205</v>
       </c>
       <c r="N5" t="n">
         <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>260.1731688314972</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
-        <v>264.7836813017771</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,7 +8298,7 @@
         <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>173.8211892316314</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>176.8437648107177</v>
@@ -8307,10 +8307,10 @@
         <v>165.5462778056219</v>
       </c>
       <c r="O6" t="n">
-        <v>178.4699366681766</v>
+        <v>176.2963480628989</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8456,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>100.0379313916668</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>100.0379313916728</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>8.96707696143514</v>
+        <v>8.967076961435552</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>51.65379892217558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>95.20590163473622</v>
       </c>
       <c r="P9" t="n">
-        <v>145.1828166028263</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.676883954082204</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>220.7830480841637</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>193.8522649336177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.87760223559258</v>
+        <v>66.36982383174329</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>80.74640578678907</v>
+        <v>80.74640578678901</v>
       </c>
       <c r="S13" t="n">
         <v>186.5963450291358</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>94.48528168429243</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.85001617220778e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>129.011732762454</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>205.6913979560563</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>99.49577990940222</v>
+        <v>77.33246004553489</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>141.596891845763</v>
+        <v>60.16217041863477</v>
       </c>
       <c r="H22" t="n">
         <v>140.4539897919539</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>163.1122511879236</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>64.04844901173874</v>
       </c>
     </row>
     <row r="26">
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>76.00797063971572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>8.827219048632571</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>78.67227416506427</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8.827219048631747</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>127.7894235718858</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0232211512629</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E34" t="n">
-        <v>142.8417107796197</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>47.02970433987686</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.58849972413417</v>
       </c>
       <c r="S34" t="n">
-        <v>177.7462364915095</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.734819797946381</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>78.21232487745962</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58849972413412</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>19.35864495127092</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>163.6545692316783</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0232211512629</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.8417107796197</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.8287961559818</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.9498010102174</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>45.23567791877861</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>78.21232487745951</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413415</v>
+        <v>63.58849972413404</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>19.35864495127128</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9.701878028921172</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512629</v>
+        <v>145.0232211512628</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8417107796197</v>
+        <v>142.8417107796196</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>136.8617379250044</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745951</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.02970433987765</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>177.7462364915095</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>129.4773403906425</v>
       </c>
       <c r="E46" t="n">
-        <v>142.8417107796197</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.8287961559818</v>
+        <v>141.8287961559817</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745962</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.58849972413402</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>177.7462364915094</v>
       </c>
       <c r="T46" t="n">
-        <v>149.7580409492084</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1006900.929764485</v>
+        <v>1006900.929764486</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1117021.711014133</v>
+        <v>1117021.711014134</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1117021.711014134</v>
+        <v>1117021.711014133</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1117021.711014134</v>
+        <v>1117021.711014133</v>
       </c>
     </row>
     <row r="12">
@@ -26317,10 +26317,10 @@
         <v>307890.6636991062</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>272779.512586186</v>
+        <v>272779.5125861861</v>
       </c>
       <c r="F2" t="n">
         <v>302506.1164194596</v>
@@ -26341,19 +26341,19 @@
         <v>302506.1164194595</v>
       </c>
       <c r="L2" t="n">
+        <v>303276.8958442456</v>
+      </c>
+      <c r="M2" t="n">
         <v>303276.8958442457</v>
       </c>
-      <c r="M2" t="n">
-        <v>303276.8958442456</v>
-      </c>
       <c r="N2" t="n">
-        <v>303276.8958442456</v>
+        <v>303276.8958442455</v>
       </c>
       <c r="O2" t="n">
+        <v>303276.8958442458</v>
+      </c>
+      <c r="P2" t="n">
         <v>303276.8958442457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>303276.8958442458</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>527521.4895556981</v>
+        <v>527521.4895556961</v>
       </c>
       <c r="E3" t="n">
-        <v>701344.8541960446</v>
+        <v>701344.8541960472</v>
       </c>
       <c r="F3" t="n">
-        <v>194706.3813781112</v>
+        <v>194706.3813781106</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>49110.82491478215</v>
+        <v>49110.8249147819</v>
       </c>
       <c r="M3" t="n">
-        <v>175856.6730659572</v>
+        <v>175856.6730659575</v>
       </c>
       <c r="N3" t="n">
-        <v>53390.67969731418</v>
+        <v>53390.67969731412</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.0943290079</v>
+        <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>254435.5533969869</v>
+        <v>254435.5533969874</v>
       </c>
       <c r="E4" t="n">
         <v>7394.650759613886</v>
       </c>
       <c r="F4" t="n">
-        <v>8630.196431623868</v>
+        <v>8630.19643162391</v>
       </c>
       <c r="G4" t="n">
-        <v>8630.196431623917</v>
+        <v>8630.19643162391</v>
       </c>
       <c r="H4" t="n">
-        <v>8630.196431623908</v>
+        <v>8630.196431623914</v>
       </c>
       <c r="I4" t="n">
-        <v>8630.196431623963</v>
+        <v>8630.196431623906</v>
       </c>
       <c r="J4" t="n">
-        <v>8630.196431623906</v>
+        <v>8630.19643162391</v>
       </c>
       <c r="K4" t="n">
-        <v>8630.196431623917</v>
+        <v>8630.19643162391</v>
       </c>
       <c r="L4" t="n">
-        <v>10967.76361150632</v>
+        <v>10967.76361150627</v>
       </c>
       <c r="M4" t="n">
         <v>10967.76361150629</v>
       </c>
       <c r="N4" t="n">
-        <v>10967.76361150626</v>
+        <v>10967.7636115063</v>
       </c>
       <c r="O4" t="n">
-        <v>10967.76361150629</v>
+        <v>10967.76361150639</v>
       </c>
       <c r="P4" t="n">
-        <v>10967.76361150629</v>
+        <v>10967.76361150639</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>61438.34216846532</v>
+        <v>61438.34216846523</v>
       </c>
       <c r="E5" t="n">
-        <v>84029.17266496665</v>
+        <v>84029.17266496668</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572385</v>
@@ -26522,46 +26522,46 @@
         <v>-160612.8400836385</v>
       </c>
       <c r="C6" t="n">
-        <v>-131055.2297855166</v>
+        <v>-131055.2297855167</v>
       </c>
       <c r="D6" t="n">
-        <v>-535504.7214220443</v>
+        <v>-535504.7214220427</v>
       </c>
       <c r="E6" t="n">
-        <v>-519989.1650344392</v>
+        <v>-520223.2393751945</v>
       </c>
       <c r="F6" t="n">
-        <v>-1760.500847514035</v>
+        <v>-1796.397829377749</v>
       </c>
       <c r="G6" t="n">
-        <v>192945.8805305971</v>
+        <v>192909.9835487328</v>
       </c>
       <c r="H6" t="n">
-        <v>192945.8805305972</v>
+        <v>192909.9835487328</v>
       </c>
       <c r="I6" t="n">
-        <v>192945.8805305971</v>
+        <v>192909.9835487329</v>
       </c>
       <c r="J6" t="n">
-        <v>179737.3760248605</v>
+        <v>179701.4790429962</v>
       </c>
       <c r="K6" t="n">
-        <v>192093.0700988787</v>
+        <v>192057.1731170143</v>
       </c>
       <c r="L6" t="n">
-        <v>142754.1817819163</v>
+        <v>142723.4233295508</v>
       </c>
       <c r="M6" t="n">
-        <v>16008.33363074112</v>
+        <v>15977.57517837528</v>
       </c>
       <c r="N6" t="n">
-        <v>138474.3269993842</v>
+        <v>138443.5685470184</v>
       </c>
       <c r="O6" t="n">
-        <v>191865.0066966985</v>
+        <v>191834.2482443327</v>
       </c>
       <c r="P6" t="n">
-        <v>191865.0066966985</v>
+        <v>191834.2482443326</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="M2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="N2" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="O2" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="P2" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>580.0231311802861</v>
+        <v>580.0231311802841</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.733142137729</v>
+        <v>1190.73314213773</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,10 +26793,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>249.4447024463008</v>
+        <v>249.4447024462999</v>
       </c>
       <c r="E4" t="n">
-        <v>955.1182593152</v>
+        <v>955.1182593152004</v>
       </c>
       <c r="F4" t="n">
         <v>1173.104351895088</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.083577672034153e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>545.0018704611608</v>
+        <v>545.0018704611588</v>
       </c>
       <c r="E3" t="n">
-        <v>610.7100109574428</v>
+        <v>610.7100109574455</v>
       </c>
       <c r="F3" t="n">
-        <v>167.3079065786567</v>
+        <v>167.307906578656</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>195.6483844656782</v>
+        <v>195.6483844656773</v>
       </c>
       <c r="E4" t="n">
-        <v>705.6735568688993</v>
+        <v>705.6735568689004</v>
       </c>
       <c r="F4" t="n">
-        <v>217.9860925798878</v>
+        <v>217.9860925798874</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>182.6893228965968</v>
+        <v>182.689322896596</v>
       </c>
       <c r="M4" t="n">
-        <v>705.6735568688993</v>
+        <v>705.6735568689004</v>
       </c>
       <c r="N4" t="n">
-        <v>217.9860925798878</v>
+        <v>217.9860925798872</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>195.6483844656782</v>
+        <v>195.6483844656773</v>
       </c>
       <c r="M4" t="n">
-        <v>705.6735568688993</v>
+        <v>705.6735568689004</v>
       </c>
       <c r="N4" t="n">
-        <v>217.9860925798878</v>
+        <v>217.9860925798874</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>93.57486856939362</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27436,16 +27436,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>277.2695242750584</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>298.7582345223365</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>335.755204460977</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.2257647932392</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>102.9798732856153</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>43.22714760926622</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>182.3178529543487</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2902510084009</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.1999615822278</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>134.0058198385908</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>214.906507669152</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27594,7 +27594,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>201.6549091287515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>175.2269211939606</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>168.1019191570182</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>353.0797277610888</v>
+        <v>374.6541973916985</v>
       </c>
       <c r="G5" t="n">
-        <v>367.778151649987</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>284.2366289136782</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.7368656692447</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>100.0612686873063</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>91.27289441276125</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>39.41928034535497</v>
+        <v>33.00675924206476</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>116.4876546407105</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>197.898665180297</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>151.8863777966817</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>113.4505031180052</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.81474068201064</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27795,7 +27795,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>35.09793845387575</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.26752554218587</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>169.119693879324</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27831,7 +27831,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>198.3413253432054</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179.3911805108568</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>105.2383391743822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>132.485667625961</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>157.4313432954106</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>200.1361380610188</v>
       </c>
       <c r="H8" t="n">
-        <v>315.5947543079275</v>
+        <v>66.15005186162769</v>
       </c>
       <c r="I8" t="n">
-        <v>120.5810483047658</v>
+        <v>120.5810483047661</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.397246528070184</v>
       </c>
       <c r="S8" t="n">
-        <v>155.8852872675689</v>
+        <v>155.8852872675691</v>
       </c>
       <c r="T8" t="n">
         <v>212.8886083309989</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>99.79626627111307</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>136.7932362097536</v>
       </c>
     </row>
     <row r="9">
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>13.55209137726914</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0959202395398</v>
@@ -27950,7 +27950,7 @@
         <v>100.1862844736758</v>
       </c>
       <c r="I9" t="n">
-        <v>46.44208964608256</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>22.69738655841546</v>
+        <v>22.69738655841573</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>148.5096054382859</v>
       </c>
       <c r="T9" t="n">
-        <v>195.1360375858152</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8593033359965</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>2.25028071461881</v>
+        <v>2.250280714619663</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>99.58903993128196</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>166.94503600715</v>
       </c>
       <c r="H10" t="n">
-        <v>152.927785256713</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.9961057806291</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5.714069846102984</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2639748719614</v>
+        <v>130.2639748719616</v>
       </c>
       <c r="S10" t="n">
-        <v>205.7886579964377</v>
+        <v>205.7886579964378</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.476558745417</v>
       </c>
       <c r="U10" t="n">
-        <v>80.97929144542368</v>
+        <v>36.81727545466502</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>37.07829589029021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="C32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="D32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="F32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="G32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="H32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="T32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="U32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="V32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="W32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="X32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="D34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="E34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="F34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="G34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="H34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="I34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="J34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="K34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="L34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="M34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="N34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="O34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="P34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="R34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="T34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="U34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="V34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="W34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="X34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949396</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5922518669488</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949443</v>
+        <v>3.592251866949417</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5922518669488</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866947493</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="C41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="D41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="E41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="F41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="G41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="H41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="T41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="U41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="V41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="W41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="X41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="C43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="D43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="E43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="F43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="G43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="H43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="I43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="J43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="K43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="L43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="M43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="N43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="O43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="P43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="R43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="T43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="U43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="V43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="W43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="X43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="C44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="D44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="E44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="F44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="G44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="H44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="T44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="U44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="V44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="W44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="X44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="C46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="D46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="E46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="F46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="G46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="H46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="I46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="J46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="K46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="L46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="M46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="N46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="O46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="P46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="R46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="T46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="U46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="V46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="W46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="X46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.592251866949418</v>
+        <v>3.592251866949526</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.331751281126777</v>
+        <v>2.331751281126768</v>
       </c>
       <c r="H8" t="n">
-        <v>23.88004780783961</v>
+        <v>23.88004780783952</v>
       </c>
       <c r="I8" t="n">
-        <v>89.89484126564014</v>
+        <v>89.89484126563983</v>
       </c>
       <c r="J8" t="n">
-        <v>197.9044752965339</v>
+        <v>197.9044752965332</v>
       </c>
       <c r="K8" t="n">
-        <v>296.6075070266305</v>
+        <v>296.6075070266294</v>
       </c>
       <c r="L8" t="n">
-        <v>367.9678402964141</v>
+        <v>367.9678402964128</v>
       </c>
       <c r="M8" t="n">
-        <v>409.4351221421524</v>
+        <v>409.4351221421509</v>
       </c>
       <c r="N8" t="n">
-        <v>416.0602104696539</v>
+        <v>416.0602104696524</v>
       </c>
       <c r="O8" t="n">
-        <v>392.8738586679495</v>
+        <v>392.8738586679481</v>
       </c>
       <c r="P8" t="n">
-        <v>335.3087489151321</v>
+        <v>335.3087489151309</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.8029061597794</v>
+        <v>251.8029061597785</v>
       </c>
       <c r="R8" t="n">
-        <v>146.47187141308</v>
+        <v>146.4718714130795</v>
       </c>
       <c r="S8" t="n">
-        <v>53.13478231867647</v>
+        <v>53.13478231867629</v>
       </c>
       <c r="T8" t="n">
-        <v>10.20724123313247</v>
+        <v>10.20724123313243</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1865401024901421</v>
+        <v>0.1865401024901414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.247596923670804</v>
+        <v>1.2475969236708</v>
       </c>
       <c r="H9" t="n">
-        <v>12.04915976282066</v>
+        <v>12.04915976282062</v>
       </c>
       <c r="I9" t="n">
-        <v>42.95454320533251</v>
+        <v>42.95454320533236</v>
       </c>
       <c r="J9" t="n">
-        <v>117.8705497052316</v>
+        <v>117.8705497052311</v>
       </c>
       <c r="K9" t="n">
-        <v>201.4595435911754</v>
+        <v>201.4595435911747</v>
       </c>
       <c r="L9" t="n">
-        <v>270.8872180101893</v>
+        <v>270.8872180101883</v>
       </c>
       <c r="M9" t="n">
-        <v>316.1126064932559</v>
+        <v>316.1126064932548</v>
       </c>
       <c r="N9" t="n">
-        <v>324.479166564715</v>
+        <v>324.4791665647138</v>
       </c>
       <c r="O9" t="n">
-        <v>296.8350452560093</v>
+        <v>296.8350452560082</v>
       </c>
       <c r="P9" t="n">
-        <v>238.2362932578047</v>
+        <v>238.2362932578039</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2546529233118</v>
+        <v>159.2546529233112</v>
       </c>
       <c r="R9" t="n">
-        <v>77.46044759422767</v>
+        <v>77.4604475942274</v>
       </c>
       <c r="S9" t="n">
-        <v>23.17356566555198</v>
+        <v>23.1735656655519</v>
       </c>
       <c r="T9" t="n">
-        <v>5.028691109006441</v>
+        <v>5.028691109006423</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0820787449783424</v>
+        <v>0.08207874497834212</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.045943351308712</v>
+        <v>1.045943351308709</v>
       </c>
       <c r="H10" t="n">
-        <v>9.299387250726561</v>
+        <v>9.299387250726527</v>
       </c>
       <c r="I10" t="n">
-        <v>31.45436914662929</v>
+        <v>31.45436914662918</v>
       </c>
       <c r="J10" t="n">
-        <v>73.94819493752597</v>
+        <v>73.94819493752571</v>
       </c>
       <c r="K10" t="n">
-        <v>121.5196002702304</v>
+        <v>121.51960027023</v>
       </c>
       <c r="L10" t="n">
-        <v>155.5032506118426</v>
+        <v>155.5032506118421</v>
       </c>
       <c r="M10" t="n">
-        <v>163.9563746056012</v>
+        <v>163.9563746056006</v>
       </c>
       <c r="N10" t="n">
-        <v>160.0578584779961</v>
+        <v>160.0578584779955</v>
       </c>
       <c r="O10" t="n">
-        <v>147.8393384195261</v>
+        <v>147.8393384195255</v>
       </c>
       <c r="P10" t="n">
-        <v>126.5020940528282</v>
+        <v>126.5020940528278</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.5834928082232</v>
+        <v>87.58349280822289</v>
       </c>
       <c r="R10" t="n">
-        <v>47.0294165052081</v>
+        <v>47.02941650520793</v>
       </c>
       <c r="S10" t="n">
-        <v>18.22794004053456</v>
+        <v>18.22794004053449</v>
       </c>
       <c r="T10" t="n">
-        <v>4.469030682864497</v>
+        <v>4.469030682864482</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05705145552592984</v>
+        <v>0.05705145552592964</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.786866903066243</v>
+        <v>4.786866903066246</v>
       </c>
       <c r="H11" t="n">
-        <v>49.02350067102718</v>
+        <v>49.02350067102721</v>
       </c>
       <c r="I11" t="n">
-        <v>184.5456862804615</v>
+        <v>184.5456862804616</v>
       </c>
       <c r="J11" t="n">
-        <v>406.2793448141189</v>
+        <v>406.2793448141192</v>
       </c>
       <c r="K11" t="n">
-        <v>608.9074208209131</v>
+        <v>608.9074208209134</v>
       </c>
       <c r="L11" t="n">
-        <v>755.4034988056268</v>
+        <v>755.4034988056272</v>
       </c>
       <c r="M11" t="n">
-        <v>840.5319430930311</v>
+        <v>840.5319430930316</v>
       </c>
       <c r="N11" t="n">
-        <v>854.1326286813681</v>
+        <v>854.1326286813686</v>
       </c>
       <c r="O11" t="n">
-        <v>806.5332209140031</v>
+        <v>806.5332209140036</v>
       </c>
       <c r="P11" t="n">
-        <v>688.3574442445552</v>
+        <v>688.3574442445555</v>
       </c>
       <c r="Q11" t="n">
-        <v>516.9277732784951</v>
+        <v>516.9277732784955</v>
       </c>
       <c r="R11" t="n">
-        <v>300.6930280997352</v>
+        <v>300.6930280997353</v>
       </c>
       <c r="S11" t="n">
-        <v>109.0807295536221</v>
+        <v>109.0807295536222</v>
       </c>
       <c r="T11" t="n">
-        <v>20.95450986817249</v>
+        <v>20.9545098681725</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3829493522452994</v>
+        <v>0.3829493522452996</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.561199588749077</v>
+        <v>2.561199588749079</v>
       </c>
       <c r="H12" t="n">
-        <v>24.73579602818188</v>
+        <v>24.7357960281819</v>
       </c>
       <c r="I12" t="n">
-        <v>88.18165250736956</v>
+        <v>88.18165250736961</v>
       </c>
       <c r="J12" t="n">
-        <v>241.9771944791399</v>
+        <v>241.97719447914</v>
       </c>
       <c r="K12" t="n">
-        <v>413.577566925328</v>
+        <v>413.5775669253283</v>
       </c>
       <c r="L12" t="n">
-        <v>205.8664920031588</v>
+        <v>556.1060773729085</v>
       </c>
       <c r="M12" t="n">
-        <v>648.9495624650622</v>
+        <v>648.9495624650625</v>
       </c>
       <c r="N12" t="n">
-        <v>666.1253263738225</v>
+        <v>315.8857410040717</v>
       </c>
       <c r="O12" t="n">
-        <v>609.3745354862772</v>
+        <v>609.3745354862775</v>
       </c>
       <c r="P12" t="n">
-        <v>489.0767881357778</v>
+        <v>489.0767881357781</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.9348808375138</v>
+        <v>326.934880837514</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>47.57315902786112</v>
+        <v>47.57315902786114</v>
       </c>
       <c r="T12" t="n">
-        <v>10.32343167570351</v>
+        <v>10.32343167570352</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1684999729440183</v>
+        <v>0.1684999729440184</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.147223698936888</v>
+        <v>2.147223698936889</v>
       </c>
       <c r="H13" t="n">
-        <v>19.09077070509344</v>
+        <v>19.09077070509345</v>
       </c>
       <c r="I13" t="n">
-        <v>64.57287269166571</v>
+        <v>64.57287269166574</v>
       </c>
       <c r="J13" t="n">
-        <v>151.808715514838</v>
+        <v>151.8087155148381</v>
       </c>
       <c r="K13" t="n">
-        <v>249.4683533855766</v>
+        <v>249.4683533855767</v>
       </c>
       <c r="L13" t="n">
-        <v>319.2336033855806</v>
+        <v>319.2336033855809</v>
       </c>
       <c r="M13" t="n">
-        <v>336.5870749160796</v>
+        <v>336.5870749160798</v>
       </c>
       <c r="N13" t="n">
-        <v>328.5837865836787</v>
+        <v>328.5837865836789</v>
       </c>
       <c r="O13" t="n">
-        <v>303.5003097370068</v>
+        <v>303.5003097370069</v>
       </c>
       <c r="P13" t="n">
-        <v>259.696946278694</v>
+        <v>259.6969462786942</v>
       </c>
       <c r="Q13" t="n">
-        <v>179.8007044627971</v>
+        <v>179.8007044627972</v>
       </c>
       <c r="R13" t="n">
-        <v>96.54698559038042</v>
+        <v>96.54698559038047</v>
       </c>
       <c r="S13" t="n">
-        <v>37.42025300783648</v>
+        <v>37.4202530078365</v>
       </c>
       <c r="T13" t="n">
-        <v>9.174501259093974</v>
+        <v>9.174501259093979</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1171212926692849</v>
+        <v>0.117121292669285</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396507</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>306.467419192828</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927637</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>420.7661933823242</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>420.7661933823242</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504301</v>
@@ -32564,13 +32564,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>180.8424455441211</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,13 +32783,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745724</v>
@@ -32798,13 +32798,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>546.2440616005154</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>421.3049304638558</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32874,7 +32874,7 @@
         <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
         <v>374.7525405416874</v>
@@ -33020,7 +33020,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735818</v>
@@ -33035,13 +33035,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>422.3544583169088</v>
+        <v>625.8629556893712</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
         <v>275.9770021735818</v>
@@ -33272,13 +33272,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>421.3049304638558</v>
       </c>
       <c r="P30" t="n">
-        <v>489.7119024980491</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J33" t="n">
         <v>275.9770021735818</v>
@@ -33506,19 +33506,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>233.5504020289918</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>626.9124835424243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
         <v>275.9770021735818</v>
@@ -33746,13 +33746,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>614.6084233282601</v>
       </c>
       <c r="O36" t="n">
-        <v>422.3544583169088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,7 +33968,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
@@ -33980,19 +33980,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>233.5504020289918</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>626.9124835424243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
@@ -34220,10 +34220,10 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>614.6084233282601</v>
       </c>
       <c r="O42" t="n">
-        <v>626.9124835424243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>557.7961431982453</v>
@@ -34369,7 +34369,7 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830435</v>
       </c>
       <c r="L44" t="n">
         <v>861.5439710364263</v>
@@ -34442,7 +34442,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
@@ -34457,10 +34457,10 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>614.6084233282601</v>
       </c>
       <c r="O45" t="n">
-        <v>626.9124835424243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>557.7961431982453</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>48.44302776295223</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="M3" t="n">
         <v>44.51290893396359</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="N3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
-        <v>51.62272937534495</v>
+        <v>46.40980178192012</v>
       </c>
       <c r="N5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>53.79631798062264</v>
@@ -35027,10 +35027,10 @@
         <v>53.79631798062264</v>
       </c>
       <c r="O6" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="P6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>16.85857076984763</v>
+        <v>16.85857076984695</v>
       </c>
       <c r="K8" t="n">
-        <v>76.51765598164991</v>
+        <v>76.51765598164883</v>
       </c>
       <c r="L8" t="n">
-        <v>232.2393567180937</v>
+        <v>132.2014253264256</v>
       </c>
       <c r="M8" t="n">
-        <v>179.0888889148797</v>
+        <v>179.0888889148782</v>
       </c>
       <c r="N8" t="n">
-        <v>186.647146873063</v>
+        <v>186.6471468730615</v>
       </c>
       <c r="O8" t="n">
-        <v>162.7756472462628</v>
+        <v>162.7756472462613</v>
       </c>
       <c r="P8" t="n">
-        <v>104.0757531598626</v>
+        <v>104.0757531598614</v>
       </c>
       <c r="Q8" t="n">
-        <v>29.49721628532987</v>
+        <v>129.5351476770018</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>63.61810461681642</v>
+        <v>115.2719035389913</v>
       </c>
       <c r="L9" t="n">
-        <v>132.3328382303151</v>
+        <v>132.3328382303142</v>
       </c>
       <c r="M9" t="n">
-        <v>173.9785725712376</v>
+        <v>173.9785725712364</v>
       </c>
       <c r="N9" t="n">
-        <v>193.1374544813817</v>
+        <v>193.1374544813805</v>
       </c>
       <c r="O9" t="n">
-        <v>154.2388008115648</v>
+        <v>249.4447024462999</v>
       </c>
       <c r="P9" t="n">
-        <v>249.4447024463008</v>
+        <v>104.2618858434736</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.94976279137245</v>
+        <v>19.27287883728971</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.25010844434755</v>
+        <v>99.25010844434711</v>
       </c>
       <c r="L10" t="n">
-        <v>183.0932758721588</v>
+        <v>183.0932758721582</v>
       </c>
       <c r="M10" t="n">
-        <v>203.5402515674417</v>
+        <v>203.5402515674412</v>
       </c>
       <c r="N10" t="n">
-        <v>204.1900308572247</v>
+        <v>204.1900308572241</v>
       </c>
       <c r="O10" t="n">
-        <v>172.4244663335658</v>
+        <v>172.4244663335652</v>
       </c>
       <c r="P10" t="n">
-        <v>123.7806533177217</v>
+        <v>123.7806533177213</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.421449556528813</v>
+        <v>1.421449556528501</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>225.2334402874326</v>
+        <v>225.2334402874329</v>
       </c>
       <c r="K11" t="n">
-        <v>388.8175697759326</v>
+        <v>388.8175697759329</v>
       </c>
       <c r="L11" t="n">
-        <v>519.6370838356395</v>
+        <v>519.6370838356399</v>
       </c>
       <c r="M11" t="n">
-        <v>610.1857098657584</v>
+        <v>610.1857098657589</v>
       </c>
       <c r="N11" t="n">
-        <v>624.7195650847773</v>
+        <v>624.7195650847777</v>
       </c>
       <c r="O11" t="n">
-        <v>576.4350094923163</v>
+        <v>576.4350094923168</v>
       </c>
       <c r="P11" t="n">
-        <v>457.1244484892856</v>
+        <v>457.124448489286</v>
       </c>
       <c r="Q11" t="n">
-        <v>294.6220834040456</v>
+        <v>294.622083404046</v>
       </c>
       <c r="R11" t="n">
-        <v>85.10749028560303</v>
+        <v>85.10749028560321</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>115.1395678124732</v>
+        <v>115.1395678124733</v>
       </c>
       <c r="K12" t="n">
-        <v>275.736127950969</v>
+        <v>275.7361279509693</v>
       </c>
       <c r="L12" t="n">
-        <v>67.31211222328467</v>
+        <v>417.5516975930344</v>
       </c>
       <c r="M12" t="n">
-        <v>506.8155285430439</v>
+        <v>506.8155285430442</v>
       </c>
       <c r="N12" t="n">
-        <v>534.7836142904893</v>
+        <v>184.5440289207384</v>
       </c>
       <c r="O12" t="n">
-        <v>466.7782910418327</v>
+        <v>466.7782910418331</v>
       </c>
       <c r="P12" t="n">
-        <v>355.1023807214476</v>
+        <v>355.1023807214478</v>
       </c>
       <c r="Q12" t="n">
-        <v>186.9531067514923</v>
+        <v>186.9531067514925</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.44953539816521</v>
+        <v>58.4495353981653</v>
       </c>
       <c r="K13" t="n">
-        <v>227.1988615596937</v>
+        <v>227.1988615596939</v>
       </c>
       <c r="L13" t="n">
-        <v>346.8236286458967</v>
+        <v>346.823628645897</v>
       </c>
       <c r="M13" t="n">
-        <v>376.1709518779202</v>
+        <v>376.1709518779203</v>
       </c>
       <c r="N13" t="n">
-        <v>372.7159589629073</v>
+        <v>372.7159589629075</v>
       </c>
       <c r="O13" t="n">
-        <v>328.0854376510464</v>
+        <v>328.0854376510466</v>
       </c>
       <c r="P13" t="n">
-        <v>256.9755055435875</v>
+        <v>256.9755055435877</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.63866121110267</v>
+        <v>93.63866121110279</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35653,7 +35653,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N14" t="n">
         <v>744.7323009263698</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977649</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>164.3333852708097</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094305</v>
@@ -35890,7 +35890,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N17" t="n">
         <v>744.7323009263698</v>
@@ -35899,7 +35899,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
         <v>367.2547334404111</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>282.21181360245</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P20" t="n">
         <v>553.8443926134828</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>282.21181360245</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
@@ -36212,13 +36212,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R23" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946982</v>
@@ -36446,13 +36446,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>414.9023495171821</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>278.7086860194114</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
@@ -36531,10 +36531,10 @@
         <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069151</v>
@@ -36683,13 +36683,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.7582138724644</v>
+        <v>483.2667112449268</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380625</v>
@@ -36847,7 +36847,7 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
         <v>367.2547334404111</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
@@ -36920,13 +36920,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>278.7086860194114</v>
       </c>
       <c r="P30" t="n">
-        <v>355.7374950837189</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J33" t="n">
         <v>149.1393755069151</v>
@@ -37154,19 +37154,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>91.41636810697349</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>484.3162390979798</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.37217397760993</v>
+        <v>83.37217397760989</v>
       </c>
       <c r="K34" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L34" t="n">
         <v>395.2708559913274</v>
       </c>
       <c r="M34" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552921</v>
       </c>
       <c r="N34" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O34" t="n">
         <v>374.3220064275853</v>
       </c>
       <c r="P34" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J36" t="n">
         <v>149.1393755069151</v>
@@ -37394,13 +37394,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>483.2667112449268</v>
       </c>
       <c r="O36" t="n">
-        <v>279.7582138724644</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.37217397760993</v>
+        <v>83.3721739776099</v>
       </c>
       <c r="K37" t="n">
         <v>265.8434912311552</v>
@@ -37482,7 +37482,7 @@
         <v>297.0573375600853</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714293</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
@@ -37628,19 +37628,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>91.41636810697349</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>484.3162390979798</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397761002</v>
       </c>
       <c r="K40" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311553</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913276</v>
       </c>
       <c r="M40" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552923</v>
       </c>
       <c r="N40" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878656</v>
       </c>
       <c r="O40" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275854</v>
       </c>
       <c r="P40" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600854</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714294</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
@@ -37868,10 +37868,10 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>483.2667112449268</v>
       </c>
       <c r="O42" t="n">
-        <v>484.3162390979798</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>423.8217357839151</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397761002</v>
       </c>
       <c r="K43" t="n">
-        <v>265.8434912311552</v>
+        <v>265.8434912311553</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913276</v>
       </c>
       <c r="M43" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552923</v>
       </c>
       <c r="N43" t="n">
-        <v>422.4769647878655</v>
+        <v>422.4769647878656</v>
       </c>
       <c r="O43" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275854</v>
       </c>
       <c r="P43" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600854</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714294</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380629</v>
       </c>
       <c r="L44" t="n">
         <v>625.777556066439</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
@@ -38105,10 +38105,10 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>483.2667112449268</v>
       </c>
       <c r="O45" t="n">
-        <v>484.3162390979798</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>423.8217357839151</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.3721739776099</v>
+        <v>83.37217397761002</v>
       </c>
       <c r="K46" t="n">
         <v>265.8434912311552</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913275</v>
       </c>
       <c r="M46" t="n">
-        <v>427.0564862552922</v>
+        <v>427.0564862552923</v>
       </c>
       <c r="N46" t="n">
         <v>422.4769647878655</v>
       </c>
       <c r="O46" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275854</v>
       </c>
       <c r="P46" t="n">
-        <v>297.0573375600853</v>
+        <v>297.0573375600854</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714294</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
